--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Step (If Variable is Discrete)</t>
+  </si>
+  <si>
+    <t>Trust Level</t>
+  </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>POX/C</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>POX/M</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,146 +406,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Step (If Variable is Discrete)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Trust Level</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Variable Type</t>
-        </is>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>POX/C</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>145.454545455</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>27.82982492293103</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>200</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>90.90909091</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.95</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Continuous</t>
-        </is>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C/A</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0.1225</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.04974581205015376</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.22</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.025</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.95</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Continuous</t>
-        </is>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>POX/M</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>0.0014157145</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.00029811032478595</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.002</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.000831429</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.95</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Continuous</t>
-        </is>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>145.454545455</v>
+        <v>145.455</v>
       </c>
       <c r="C2">
-        <v>27.82982492293103</v>
+        <v>27.82959300795525</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2">
-        <v>90.90909091</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1225</v>
+        <v>0.12</v>
       </c>
       <c r="C3">
-        <v>0.04974581205015376</v>
+        <v>0.0510213456924654</v>
       </c>
       <c r="D3">
         <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0014157145</v>
+        <v>0.001415</v>
       </c>
       <c r="C4">
-        <v>0.00029811032478595</v>
+        <v>0.0002984748723009226</v>
       </c>
       <c r="D4">
         <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.000831429</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>145.455</v>
+        <v>505</v>
       </c>
       <c r="C2">
-        <v>27.82959300795525</v>
+        <v>252.5556611777037</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>90.91</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.505</v>
       </c>
       <c r="C3">
-        <v>0.0510213456924654</v>
+        <v>0.2525556611777037</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001415</v>
+        <v>0.00055</v>
       </c>
       <c r="C4">
-        <v>0.0002984748723009226</v>
+        <v>0.0002295960556160943</v>
       </c>
       <c r="D4">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E4">
-        <v>0.00083</v>
+        <v>0.0001</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>505</v>
+        <v>145.455</v>
       </c>
       <c r="C2">
-        <v>252.5556611777037</v>
+        <v>27.82959300795525</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.505</v>
+        <v>0.12</v>
       </c>
       <c r="C3">
-        <v>0.2525556611777037</v>
+        <v>0.0510213456924654</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.00055</v>
+        <v>0.001415</v>
       </c>
       <c r="C4">
-        <v>0.0002295960556160943</v>
+        <v>0.0002984748723009226</v>
       </c>
       <c r="D4">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.0001</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>145.455</v>
+        <v>505</v>
       </c>
       <c r="C2">
-        <v>27.82959300795525</v>
+        <v>252.5556611777037</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>90.91</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="C3">
-        <v>0.0510213456924654</v>
+        <v>0.2548516217338647</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>505</v>
+        <v>145.455</v>
       </c>
       <c r="C2">
-        <v>252.5556611777037</v>
+        <v>27.82959300795525</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>90.91</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.5004999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="C3">
-        <v>0.2548516217338647</v>
+        <v>0.0510213456924654</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="E3">
-        <v>0.001</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>145.455</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>27.82959300795525</v>
+        <v>48.47027840784212</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2">
-        <v>90.91</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C3">
-        <v>0.0510213456924654</v>
+        <v>0.04591921112321886</v>
       </c>
       <c r="D3">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
         <v>0.02</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001415</v>
+        <v>0.0011</v>
       </c>
       <c r="C4">
-        <v>0.0002984748723009226</v>
+        <v>0.0004591921112321885</v>
       </c>
       <c r="D4">
         <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.00083</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,13 +444,13 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="C2">
-        <v>48.47027840784212</v>
+        <v>252.5556611777037</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.11</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="C3">
-        <v>0.04591921112321886</v>
+        <v>0.2548516217338647</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0011</v>
+        <v>0.001415</v>
       </c>
       <c r="C4">
-        <v>0.0004591921112321885</v>
+        <v>0.0002984748723009226</v>
       </c>
       <c r="D4">
         <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.0002</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>505</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>252.5556611777037</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>119.5996398454005</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>80.40036015459947</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.5004999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.2548516217338647</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.1195996398454005</v>
       </c>
       <c r="E3">
-        <v>0.001</v>
+        <v>0.08040036015459946</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001415</v>
+        <v>0.001</v>
       </c>
       <c r="C4">
-        <v>0.0002984748723009226</v>
+        <v>0.0001</v>
       </c>
       <c r="D4">
-        <v>0.002</v>
+        <v>0.001195996398454005</v>
       </c>
       <c r="E4">
-        <v>0.00083</v>
+        <v>0.0008040036015459946</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -447,13 +447,13 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>119.5996398454005</v>
+        <v>101.9599639845401</v>
       </c>
       <c r="E2">
-        <v>80.40036015459947</v>
+        <v>98.04003601545995</v>
       </c>
       <c r="G2">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>505</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>252.5556611777037</v>
       </c>
       <c r="D2">
-        <v>101.9599639845401</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>98.04003601545995</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0.2548516217338647</v>
       </c>
       <c r="D3">
-        <v>0.1195996398454005</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.08040036015459946</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +490,16 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001</v>
+        <v>0.001415</v>
       </c>
       <c r="C4">
-        <v>0.0001</v>
+        <v>0.0002984748723009226</v>
       </c>
       <c r="D4">
-        <v>0.001195996398454005</v>
+        <v>0.002</v>
       </c>
       <c r="E4">
-        <v>0.0008040036015459946</v>
+        <v>0.00083</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -49,7 +49,7 @@
     <t>POX/M</t>
   </si>
   <si>
-    <t>Continuous</t>
+    <t>Discrete</t>
   </si>
 </sst>
 </file>
@@ -444,16 +444,19 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>119.5996398454005</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>80.40036015459947</v>
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -467,16 +470,19 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1195996398454005</v>
+        <v>0.13</v>
       </c>
       <c r="E3">
-        <v>0.08040036015459946</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>5.999999999999999E-05</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -490,16 +496,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001195996398454005</v>
+        <v>0.0013</v>
       </c>
       <c r="E4">
-        <v>0.0008040036015459946</v>
+        <v>0.0007</v>
+      </c>
+      <c r="F4">
+        <v>6E-07</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -40,13 +40,13 @@
     <t>Variable Type</t>
   </si>
   <si>
-    <t>POX/C</t>
-  </si>
-  <si>
-    <t>C/A</t>
-  </si>
-  <si>
-    <t>POX/M</t>
+    <t>Evaporator Temperature</t>
+  </si>
+  <si>
+    <t>Condenser Temperature</t>
+  </si>
+  <si>
+    <t>Adiabatic Efficiency</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -476,13 +476,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.13</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>0.07000000000000001</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>5.999999999999999E-05</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>0.95</v>
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0013</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.0007</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>6E-07</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -508,7 +508,7 @@
         <v>70</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Variable Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Adiabatic Efficiency</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +465,7 @@
         <v>0.95</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -488,7 +491,7 @@
         <v>0.95</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -514,7 +517,33 @@
         <v>0.95</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>18000</v>
+      </c>
+      <c r="E5">
+        <v>9000</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>0.95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Variable Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>Continuous</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -447,19 +450,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>23.91992796908011</v>
       </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0.1</v>
+        <v>16.08007203091989</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -491,7 +491,7 @@
         <v>0.95</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -517,7 +517,7 @@
         <v>0.95</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -543,7 +543,7 @@
         <v>0.95</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -537,7 +537,7 @@
         <v>9000</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>0.95</v>

--- a/doe/NewInputVariables.xlsx
+++ b/doe/NewInputVariables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Variable Name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Capacity</t>
-  </si>
-  <si>
-    <t>Continuous</t>
   </si>
   <si>
     <t>Discrete</t>
@@ -450,16 +447,19 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>23.91992796908011</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>16.08007203091989</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -491,7 +491,7 @@
         <v>0.95</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -517,7 +517,7 @@
         <v>0.95</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -531,19 +531,19 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="E5">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0.95</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
